--- a/biology/Zoologie/Ekrixinatosaurus/Ekrixinatosaurus.xlsx
+++ b/biology/Zoologie/Ekrixinatosaurus/Ekrixinatosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekrixinatosaurus novasi
-Ekrixinatosaurus était un genre éteint de dinosaures prédateurs, de la famille des Abelisauridae, de la base du Crétacé supérieur (Cénomanien) dont les fossiles ont été trouvés en Argentine[1].
-L'espèce type et seule espèce, Ekrixinatosaurus novasi, a été décrite pour la première fois en 2004 par le paléontologue Jorge Calvo, et les paléontologues chiliens David Rubilar-Rogers et Karen Moreno. Elle a été découverte dans la formation géologique de Candeleros, une formation géologique qui affleure à Río Negro, Neuquén et Mendoza, en Argentine[1]. La formation remonte à entre 100 et 97 millions d'années.
+Ekrixinatosaurus était un genre éteint de dinosaures prédateurs, de la famille des Abelisauridae, de la base du Crétacé supérieur (Cénomanien) dont les fossiles ont été trouvés en Argentine.
+L'espèce type et seule espèce, Ekrixinatosaurus novasi, a été décrite pour la première fois en 2004 par le paléontologue Jorge Calvo, et les paléontologues chiliens David Rubilar-Rogers et Karen Moreno. Elle a été découverte dans la formation géologique de Candeleros, une formation géologique qui affleure à Río Negro, Neuquén et Mendoza, en Argentine. La formation remonte à entre 100 et 97 millions d'années.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekrixinatosaurus partageait son environnement avec plusieurs dinosaures géants. Les sauropodes Limaysaurus et Andesaurus étaient les principaux herbivores de la région.
 </t>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekrixinatosaurus, du grec ancien ἔκρηξις, ekrêksis, « explosion », du  latin nato, « né », et grec ancien σαύρα, saúra, « lézard » , fait référence à la découverte de ce fossile survenue après le dynamitage de la gangue rocheuse qui l'entourait. 
 Son nom spécifique, novasi, lui a été donné en l'honneur du Dr. Fernando Novas pour son importante contribution à l'étude des Abelisauridae.
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(es + en) Jorge O. Calvo, David Rubilar-Rogers et Karen Moreno, « A new Abelisauridae (Dinosauria: Theropoda) from northwest Patagonia », Ameghiniana, Asociación Paleontológica Argentina (d), vol. 41, no 4,‎ décembre 2004, p. 555-563 (ISSN 0002-7014 et 1851-8044, OCLC 63173355, lire en ligne)</t>
         </is>
